--- a/scripts/data/trigger_config_Table.xlsx
+++ b/scripts/data/trigger_config_Table.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\huanhuoserver\scripts\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\kbengine\huanhuoserver\scripts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="10995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="10995"/>
   </bookViews>
   <sheets>
     <sheet name="@触发器配置表#trigger_config_Table" sheetId="1" r:id="rId1"/>
@@ -95,56 +95,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>20.0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>20.0</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>坐标</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -153,56 +103,34 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>triggerConfig[.][tStr]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>触发器参数配置</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;40.0|0.0|20.0</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;440.0|0.0|440.0</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>spaceUID[.][int]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1#440.0;0.0;440.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#40.0;22.0;20.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>triggerConfig[.][tIntL]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.0;22.0;20.0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -530,11 +458,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -542,7 +470,7 @@
     <col min="1" max="1" width="15.75" customWidth="1"/>
     <col min="2" max="2" width="23.25" customWidth="1"/>
     <col min="3" max="4" width="18.875" customWidth="1"/>
-    <col min="5" max="5" width="27.625" customWidth="1"/>
+    <col min="5" max="5" width="30.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -550,7 +478,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -559,7 +487,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -570,13 +498,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -607,10 +535,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">

--- a/scripts/data/trigger_config_Table.xlsx
+++ b/scripts/data/trigger_config_Table.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\kbengine\huanhuoserver\scripts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{33DFF282-75FF-4483-A37C-D1CEA19252F5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="10995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="10995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="@触发器配置表#trigger_config_Table" sheetId="1" r:id="rId1"/>
@@ -45,56 +46,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>450.0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0.2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>450.0</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>坐标</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -124,13 +75,17 @@
   </si>
   <si>
     <t>20.0;22.0;20.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>400.0;0.2;320.0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -458,11 +413,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -478,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -487,7 +442,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -498,13 +453,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -518,10 +473,10 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -535,10 +490,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">

--- a/scripts/data/trigger_config_Table.xlsx
+++ b/scripts/data/trigger_config_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\kbengine\huanhuoserver\scripts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{33DFF282-75FF-4483-A37C-D1CEA19252F5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{01954AD2-2887-439F-BB71-3414A3B6BD9B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="10995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1#440.0;0.0;440.0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2#40.0;22.0;20.0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -79,6 +75,10 @@
   </si>
   <si>
     <t>400.0;0.2;320.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1#393.0;0.0;304.0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -417,7 +417,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -442,7 +442,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -473,10 +473,10 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -490,10 +490,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
